--- a/数据整理/stocks/A股/科创板/688007-光峰科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688007-光峰科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1581,4 +1582,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688007-光峰科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688007-光峰科技.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1590,7 +1591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1601,17 +1602,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1621,14 +1642,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5600000000000001</v>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1825</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1637,13 +1680,385 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>630015</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商大盘量化精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007152</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺德策略精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>20</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>2.65</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688007-光峰科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688007-光峰科技.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1989,7 +1990,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2000,17 +2001,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2020,14 +2041,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.52</v>
+          <t>270041</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1700</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2036,14 +2079,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5600000000000001</v>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2052,13 +2117,173 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010022</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>20</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>2.65</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688007-光峰科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688007-光峰科技.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,813 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>506005</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时科创板三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>33.63</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.87</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2241</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009064</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏扬景沃六个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>51.96</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>20.62</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3170</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="D3" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>320012</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>诺安主题精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.52</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2932</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+      <c r="D4" t="n">
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>050022</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时回报混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.50</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>76.08</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2584</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009065</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏扬景沃六个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>17.79</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>20.62</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1085</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001255</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>长城改革红利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.90</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0738</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002252</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>融通成长30灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.86</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0511</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006084</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>融通研究优选混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0508</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001276</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>建信新经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>58.86</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0464</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>519097</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>新华中小市值优选混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.79</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0450</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009500</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国寿安保高股息混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>76.92</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0448</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001613</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>长城久祥灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>7.74</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0348</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001825</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>建信中国制造2025股票</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>82.94</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0285</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>519125</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>浦银安盛消费升级混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>78.32</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0245</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002605</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>融通新消费灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>23.55</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0208</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001830</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>融通跨界成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.52</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0157</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002512</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>长城久润混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>90.06</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0137</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>519176</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>浦银安盛消费升级混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>78.32</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009501</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>国寿安保高股息混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>76.92</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>001744</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>诺安进取回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>29.46</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.65</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1270,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1291,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1321,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006007</t>
+          <t>270041</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺安积极配置混合A</t>
+          <t>广发消费品精选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.97</t>
+          <t>91.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1831</t>
+          <t>0.1700</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1359,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>320012</t>
+          <t>260115</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>诺安主题精选混合</t>
+          <t>景顺长城中小盘混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.22</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1704</t>
+          <t>0.0565</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1397,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>630015</t>
+          <t>001613</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华商大盘量化精选混合</t>
+          <t>长城久祥灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>86.81</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1286</t>
+          <t>0.0087</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1435,150 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519125</t>
+          <t>010022</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>浦银安盛消费升级混合A</t>
+          <t>广发消费品精选混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.55</t>
+          <t>91.74</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0380</t>
+          <t>0.0048</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006008</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>诺安积极配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>83.97</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0208</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001613</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>长城久祥灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.61</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0146</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
         <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519176</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>浦银安盛消费升级混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.55</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0074</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1990,7 +1160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2011,7 +1181,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2041,36 +1211,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>270041</t>
+          <t>006007</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发消费品精选混合A</t>
+          <t>诺安积极配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.74</t>
+          <t>83.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1700</t>
+          <t>0.1831</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2079,36 +1249,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>260115</t>
+          <t>320012</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城中小盘混合</t>
+          <t>诺安主题精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>87.22</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0565</t>
+          <t>0.1704</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2117,36 +1287,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001613</t>
+          <t>630015</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长城久祥灵活配置混合</t>
+          <t>华商大盘量化精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.81</t>
+          <t>92.90</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0087</t>
+          <t>0.1286</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2155,36 +1325,150 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010022</t>
+          <t>519125</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发消费品精选混合C</t>
+          <t>浦银安盛消费升级混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.74</t>
+          <t>90.55</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0048</t>
+          <t>0.0380</t>
         </is>
       </c>
       <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2198,96 +1482,812 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2241</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009064</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3170</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2932</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>050022</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2584</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009065</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006084</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通研究优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>58.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.65</v>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002605</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>融通新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002512</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长城久润混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688007-光峰科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688007-光峰科技.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.52</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>20</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.65</v>
       </c>
     </row>
@@ -615,26 +632,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.74</t>
+          <t>72.88</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1700</t>
+          <t>0.1429</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -643,36 +660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>260115</t>
+          <t>004320</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城中小盘混合</t>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>71.16</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0565</t>
+          <t>0.0087</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -691,26 +708,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.81</t>
+          <t>84.63</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0087</t>
+          <t>0.0078</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -729,26 +746,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.74</t>
+          <t>72.88</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0048</t>
+          <t>0.0046</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -757,6 +774,214 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>270041</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1700</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010022</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1154,7 +1379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1476,7 +1701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688007-光峰科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688007-光峰科技.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.16</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.52</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>20</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.65</v>
       </c>
     </row>
@@ -571,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,32 +639,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>270041</t>
+          <t>001975</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发消费品精选混合A</t>
+          <t>景顺长城环保优势股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>40.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>72.88</t>
+          <t>92.75</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1429</t>
+          <t>1.2849</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -660,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004320</t>
+          <t>006435</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深乐享生活灵活配置混合</t>
+          <t>景顺长城创新成长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>34.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>71.16</t>
+          <t>92.79</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0087</t>
+          <t>1.0198</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -698,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001613</t>
+          <t>270041</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长城久祥灵活配置混合</t>
+          <t>广发消费品精选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>84.63</t>
+          <t>79.27</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0078</t>
+          <t>0.1670</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -736,36 +753,264 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000573</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘通利混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003780</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华兴悦定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010331</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘消费股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010332</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘消费股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>010022</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>广发消费品精选混合C</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>72.88</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015462</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -840,26 +1085,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.74</t>
+          <t>72.88</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1700</t>
+          <t>0.1429</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -868,36 +1113,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>260115</t>
+          <t>004320</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城中小盘混合</t>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>71.16</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0565</t>
+          <t>0.0087</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -916,26 +1161,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.81</t>
+          <t>84.63</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0087</t>
+          <t>0.0078</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -954,26 +1199,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.74</t>
+          <t>72.88</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0048</t>
+          <t>0.0046</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -982,6 +1227,214 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>270041</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1700</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010022</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1379,7 +1832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1701,7 +2154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
